--- a/DATA_goal/Junction_Flooding_40.xlsx
+++ b/DATA_goal/Junction_Flooding_40.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>40750.81944444445</v>
+        <v>40750.81943287037</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>14.39</v>
@@ -1681,117 +1681,13 @@
         <v>0</v>
       </c>
       <c r="AF11" s="4" t="n">
-        <v>39.68</v>
+        <v>39.69</v>
       </c>
       <c r="AG11" s="4" t="n">
         <v>5.96</v>
       </c>
       <c r="AH11" s="4" t="n">
         <v>12.98</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>35.22</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>124.37</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>31.94</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>9.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_40.xlsx
+++ b/DATA_goal/Junction_Flooding_40.xlsx
@@ -448,17 +448,17 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -863,103 +863,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.85</v>
-      </c>
       <c r="L4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.97</v>
+        <v>2.2</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.59</v>
+        <v>2.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.45</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>136.02</v>
+        <v>13.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.82</v>
+        <v>2.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.45</v>
+        <v>1.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40750.78472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.19</v>
+        <v>1.92</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>41.78</v>
+        <v>4.18</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>34.87</v>
+        <v>3.49</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>56.18</v>
+        <v>5.62</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23.23</v>
+        <v>2.32</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>221.8</v>
+        <v>22.18</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>41.84</v>
+        <v>4.18</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.95</v>
+        <v>1.39</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>28.33</v>
+        <v>2.83</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>27.75</v>
+        <v>2.77</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.63</v>
+        <v>1.76</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>50.87</v>
+        <v>5.09</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40750.79166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>27.16</v>
+        <v>2.72</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>22.73</v>
+        <v>2.27</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>40.24</v>
+        <v>4.02</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>141.64</v>
+        <v>14.16</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>27.25</v>
+        <v>2.73</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.25</v>
+        <v>0.83</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>36.48</v>
+        <v>3.65</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40750.79861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="R8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>27.21</v>
+        <v>2.72</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40750.80555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.85</v>
+        <v>0.28</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="R9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>32.82</v>
+        <v>3.28</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40750.8125</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.3</v>
+        <v>3.03</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.24</v>
+        <v>2.52</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>38.38</v>
+        <v>3.84</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>158.7</v>
+        <v>15.87</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>30.23</v>
+        <v>3.02</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>34.39</v>
+        <v>3.44</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_40.xlsx
+++ b/DATA_goal/Junction_Flooding_40.xlsx
@@ -443,25 +443,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -471,11 +471,11 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>36373.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36373.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.11</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.69</v>
+        <v>36.89</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>141.46</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.16</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>3.39</v>
+        <v>33.94</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36373.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.17</v>
+        <v>31.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.28</v>
+        <v>112.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.12</v>
       </c>
       <c r="V4" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.9</v>
+        <v>29.03</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>36373.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.1</v>
+        <v>21.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.72</v>
+        <v>27.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_40.xlsx
+++ b/DATA_goal/Junction_Flooding_40.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36373.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.34</v>
+        <v>12.337</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.83</v>
+        <v>8.827999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.624</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.11</v>
+        <v>27.113</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.24</v>
+        <v>21.241</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.59</v>
+        <v>9.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.89</v>
+        <v>36.887</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.44</v>
+        <v>6.439</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.32</v>
+        <v>9.319000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.814</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.6</v>
+        <v>11.599</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>3.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.68</v>
+        <v>13.681</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.612</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.347</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.46</v>
+        <v>141.461</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.35</v>
+        <v>27.349</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.96</v>
+        <v>17.961</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.34</v>
+        <v>9.336</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.41</v>
+        <v>18.406</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.25</v>
+        <v>7.255</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.544</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.284</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.94</v>
+        <v>33.944</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.9</v>
+        <v>4.902</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36373.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.964</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.24</v>
+        <v>7.242</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>21.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.32</v>
+        <v>17.319</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.76</v>
+        <v>7.761</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.66</v>
+        <v>31.664</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.265</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>8.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.41</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.537</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.1</v>
+        <v>11.097</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.92</v>
+        <v>6.916</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.909</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.85</v>
+        <v>112.849</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.12</v>
+        <v>22.122</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.59</v>
+        <v>14.593</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.61</v>
+        <v>7.609</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.426</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.35</v>
+        <v>15.345</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.84</v>
+        <v>5.837</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.86</v>
+        <v>6.862</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.17</v>
+        <v>9.169</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>29.03</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.978</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36373.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_40.xlsx
+++ b/DATA_goal/Junction_Flooding_40.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>36373.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.503</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.98</v>
+        <v>6.981</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.866</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.9</v>
+        <v>20.895</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.65</v>
+        <v>16.655</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.42</v>
+        <v>7.421</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.84</v>
+        <v>29.835</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.06</v>
+        <v>5.061</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.355</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.368</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.962</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>2.416</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.6</v>
+        <v>10.604</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.523</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.515</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.05</v>
+        <v>21.045</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.95</v>
+        <v>13.954</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.3</v>
+        <v>7.298</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.282</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.42</v>
+        <v>14.423</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.526</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.49</v>
+        <v>6.493</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.76</v>
+        <v>8.763999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.23</v>
+        <v>27.231</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.818</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>36373.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_40.xlsx
+++ b/DATA_goal/Junction_Flooding_40.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>36373.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.503</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.981</v>
+        <v>6.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.895</v>
+        <v>20.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.655</v>
+        <v>16.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.421</v>
+        <v>7.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.835</v>
+        <v>29.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.635</v>
+        <v>11.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.061</v>
+        <v>5.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.355</v>
+        <v>7.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.368</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.962</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.416</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.519</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.604</v>
+        <v>10.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.523</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.045</v>
+        <v>21.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.954</v>
+        <v>13.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.298</v>
+        <v>7.3</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.282</v>
+        <v>1.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.423</v>
+        <v>14.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.131</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.526</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.493</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.763999999999999</v>
+        <v>8.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.231</v>
+        <v>27.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.818</v>
+        <v>3.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.677</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36373.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
